--- a/medicine/Sexualité et sexologie/Cameltoe/Cameltoe.xlsx
+++ b/medicine/Sexualité et sexologie/Cameltoe/Cameltoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cameltoe ou camel toe (littéralement « orteil de chameau ») est un terme argotique anglais utilisé pour désigner la forme de la vulve vue sous des vêtements moulants, des grandes lèvres d'une femme[1],[2].
+Cameltoe ou camel toe (littéralement « orteil de chameau ») est un terme argotique anglais utilisé pour désigner la forme de la vulve vue sous des vêtements moulants, des grandes lèvres d'une femme,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origine de l'expression</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression tire son origine  de la similitude avec les deux orteils du pied d'un chameau (camel en anglais).
 </t>
@@ -543,12 +557,14 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les causes du cameltoe ne sont pas toujours évidentes[3],[4].
-Le cameltoe est le plus souvent le résultat du port de vêtements moulants tels que blue-jeans, shorts, micro-shorts, leggings ou maillots de bain[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les causes du cameltoe ne sont pas toujours évidentes,.
+Le cameltoe est le plus souvent le résultat du port de vêtements moulants tels que blue-jeans, shorts, micro-shorts, leggings ou maillots de bain.
 Cependant, certains analystes de mode reconnaissent également qu'il est plus dû au design des vêtements qu'à la taille. 
-Le cameltoe est cependant accentué par des jeans ou d'autres vêtements ayant une couture centrale serrée qui sépare les grandes lèvres[5],[6].
+Le cameltoe est cependant accentué par des jeans ou d'autres vêtements ayant une couture centrale serrée qui sépare les grandes lèvres,.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Chez les hommes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque des organes masculins sont visibles sous des vêtements à l'entre-jambe, on parle de moose knuckle (« jarret d'orignal »)[7]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque des organes masculins sont visibles sous des vêtements à l'entre-jambe, on parle de moose knuckle (« jarret d'orignal »). 
 Ce terme d'argot est utilisé dans le film The Weather Man et dans le deuxième épisode de la saison 12 de South Park. 
 Le terme de « cameltoe oasis » peut aussi se rencontrer lorsque plusieurs cameltoe sont visibles en même temps et il est notamment employé dans le film American Pie : No Limit !
 </t>
